--- a/Code/Results/Cases/Case_2_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.5505004534665</v>
+        <v>16.74211658298923</v>
       </c>
       <c r="C2">
-        <v>13.469103001471</v>
+        <v>9.106340609433479</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.337893710058689</v>
+        <v>10.777995426789</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>31.90760351085443</v>
+        <v>33.71702522009998</v>
       </c>
       <c r="H2">
-        <v>10.13905030533872</v>
+        <v>15.2291425669893</v>
       </c>
       <c r="I2">
-        <v>15.11297540182901</v>
+        <v>22.95232803070489</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.423808425462858</v>
+        <v>9.971151084086252</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.52160001913841</v>
+        <v>17.38348616892499</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.99276545834207</v>
+        <v>16.22601943643508</v>
       </c>
       <c r="C3">
-        <v>12.66824007125547</v>
+        <v>8.731812757914806</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.358914104520635</v>
+        <v>10.80581040853205</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>30.50593436087702</v>
+        <v>33.57042645172668</v>
       </c>
       <c r="H3">
-        <v>10.03159041530384</v>
+        <v>15.26946433217166</v>
       </c>
       <c r="I3">
-        <v>15.07735686159278</v>
+        <v>23.04495424042743</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.158408651678164</v>
+        <v>9.947488199921247</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.7370179126368</v>
+        <v>17.44783346892727</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.98225314567613</v>
+        <v>15.90400146914756</v>
       </c>
       <c r="C4">
-        <v>12.15235034107073</v>
+        <v>8.491610540611839</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.374990712136847</v>
+        <v>10.82428308507186</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>29.66228061026202</v>
+        <v>33.49488681808001</v>
       </c>
       <c r="H4">
-        <v>9.976368269829516</v>
+        <v>15.29795471072259</v>
       </c>
       <c r="I4">
-        <v>15.07551969754077</v>
+        <v>23.10800238295127</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.995141682425536</v>
+        <v>9.934883713706315</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.87238172691603</v>
+        <v>17.48930575903287</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.5567564083486</v>
+        <v>15.77169840435675</v>
       </c>
       <c r="C5">
-        <v>11.93606718277266</v>
+        <v>8.391228676775132</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.382316780568051</v>
+        <v>10.83216165746712</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>29.32316979605134</v>
+        <v>33.46776099375218</v>
       </c>
       <c r="H5">
-        <v>9.956471912557241</v>
+        <v>15.3104999451569</v>
       </c>
       <c r="I5">
-        <v>15.07954068917401</v>
+        <v>23.13524078425337</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.928617086331154</v>
+        <v>9.930234732055579</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.92834391996136</v>
+        <v>17.50670105135336</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.4852720942079</v>
+        <v>15.74967095967739</v>
       </c>
       <c r="C6">
-        <v>11.89978888302186</v>
+        <v>8.374411988193517</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.383579419446179</v>
+        <v>10.83349108311013</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>29.2671563970649</v>
+        <v>33.46347804470602</v>
       </c>
       <c r="H6">
-        <v>9.953322625969834</v>
+        <v>15.31263945026449</v>
       </c>
       <c r="I6">
-        <v>15.08048859357961</v>
+        <v>23.13985685261571</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.917573877903814</v>
+        <v>9.929492306345679</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.93768536462885</v>
+        <v>17.50961946551247</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.97657038250634</v>
+        <v>15.90222125760373</v>
       </c>
       <c r="C7">
-        <v>12.1494579411607</v>
+        <v>8.490266757299414</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.3750864062732</v>
+        <v>10.82438791753696</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>29.65768770164954</v>
+        <v>33.49450616346</v>
       </c>
       <c r="H7">
-        <v>9.976089518156146</v>
+        <v>15.29812011836837</v>
       </c>
       <c r="I7">
-        <v>15.075554968704</v>
+        <v>23.10836348025032</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.994244356527619</v>
+        <v>9.934819037967671</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.87313318364858</v>
+        <v>17.48953835191023</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.02454392657626</v>
+        <v>16.56535430921319</v>
       </c>
       <c r="C8">
-        <v>13.19798532568042</v>
+        <v>8.979372006814659</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.344469888146566</v>
+        <v>10.78729681388563</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>31.42102279550139</v>
+        <v>33.66348704777133</v>
       </c>
       <c r="H8">
-        <v>10.09970773649552</v>
+        <v>15.24226878650783</v>
       </c>
       <c r="I8">
-        <v>15.09637593156539</v>
+        <v>22.98297966126505</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.332412122625594</v>
+        <v>9.962594885040534</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.59524671677277</v>
+        <v>17.40526660720551</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.61702366716291</v>
+        <v>17.81647170848499</v>
       </c>
       <c r="C9">
-        <v>15.06257948527742</v>
+        <v>9.854379739930245</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.310630121647713</v>
+        <v>10.72561302011153</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>34.99766397906308</v>
+        <v>34.10857024227971</v>
       </c>
       <c r="H9">
-        <v>10.4316054711995</v>
+        <v>15.16250809550298</v>
       </c>
       <c r="I9">
-        <v>15.307951634021</v>
+        <v>22.78641139040166</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.98976801029837</v>
+        <v>10.03216293625049</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.07386943018866</v>
+        <v>17.25551799346981</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.00601895056184</v>
+        <v>18.69526437388099</v>
       </c>
       <c r="C10">
-        <v>16.31714145479825</v>
+        <v>10.44278109550958</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.303247167382486</v>
+        <v>10.68701732351678</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>37.68089725032911</v>
+        <v>34.50292691644402</v>
       </c>
       <c r="H10">
-        <v>10.73527993880021</v>
+        <v>15.12224289119255</v>
       </c>
       <c r="I10">
-        <v>15.58321025240965</v>
+        <v>22.67247139740244</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.465465667882967</v>
+        <v>10.09222448274447</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.70373538738663</v>
+        <v>17.15485942200536</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.04030568776375</v>
+        <v>19.08440244778794</v>
       </c>
       <c r="C11">
-        <v>16.86344711988366</v>
+        <v>10.69812406366997</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.304031126010106</v>
+        <v>10.6709161016268</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>38.91149645211523</v>
+        <v>34.69640220896814</v>
       </c>
       <c r="H11">
-        <v>10.88746600273233</v>
+        <v>15.10794307393456</v>
       </c>
       <c r="I11">
-        <v>15.73766771080015</v>
+        <v>22.62734226609771</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.679723346502543</v>
+        <v>10.12142854203831</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.53783979833649</v>
+        <v>17.11108058649051</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.42457874955436</v>
+        <v>19.23009488584361</v>
       </c>
       <c r="C12">
-        <v>17.06687846670886</v>
+        <v>10.79300992262638</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.304954032040473</v>
+        <v>10.66502816155646</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>39.37885572430947</v>
+        <v>34.77163581708352</v>
       </c>
       <c r="H12">
-        <v>10.94719610986107</v>
+        <v>15.10310837089898</v>
       </c>
       <c r="I12">
-        <v>15.80061406858634</v>
+        <v>22.61122380645803</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.760516281559322</v>
+        <v>10.13275199347254</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.47535029541068</v>
+        <v>17.09479046792849</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.34214466308483</v>
+        <v>19.19879352680911</v>
       </c>
       <c r="C13">
-        <v>17.02321780456762</v>
+        <v>10.77265541429688</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.304726925020756</v>
+        <v>10.66628693105532</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>39.2781414575101</v>
+        <v>34.75534630222869</v>
       </c>
       <c r="H13">
-        <v>10.93423745140897</v>
+        <v>15.10412376033754</v>
       </c>
       <c r="I13">
-        <v>15.78685531104163</v>
+        <v>22.61465190998129</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.743131701606298</v>
+        <v>10.13030162239154</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.48879418156165</v>
+        <v>17.09828604809067</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.07206720554567</v>
+        <v>19.09642277021218</v>
       </c>
       <c r="C14">
-        <v>16.88025210964977</v>
+        <v>10.7059667738668</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.304094328076003</v>
+        <v>10.67042750457074</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>38.94991930066615</v>
+        <v>34.70255260685057</v>
       </c>
       <c r="H14">
-        <v>10.892337473099</v>
+        <v>15.10753367487718</v>
       </c>
       <c r="I14">
-        <v>15.74275561439798</v>
+        <v>22.62599669108928</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.686377235201959</v>
+        <v>10.12235486424938</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.53269224824087</v>
+        <v>17.10973462417741</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.90567958072055</v>
+        <v>19.03349697638326</v>
       </c>
       <c r="C15">
-        <v>16.7922353410906</v>
+        <v>10.66488179950358</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.303789299281856</v>
+        <v>10.6729909705774</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>38.74904977905734</v>
+        <v>34.67046957565883</v>
       </c>
       <c r="H15">
-        <v>10.86694848007042</v>
+        <v>15.10969799724232</v>
       </c>
       <c r="I15">
-        <v>15.71633099822943</v>
+        <v>22.63307235312471</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.651568154020655</v>
+        <v>10.11752150519074</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.55962351492535</v>
+        <v>17.11678467422109</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.93738308401247</v>
+        <v>18.66960733418707</v>
       </c>
       <c r="C16">
-        <v>16.28095342045021</v>
+        <v>10.42584273264341</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.303281852209093</v>
+        <v>10.68809886498632</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>37.60066701215112</v>
+        <v>34.49056151741696</v>
       </c>
       <c r="H16">
-        <v>10.7256237607708</v>
+        <v>15.1232584856769</v>
       </c>
       <c r="I16">
-        <v>15.57372622032268</v>
+        <v>22.67555618118273</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.45141719561647</v>
+        <v>10.09035328285087</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.71462481879539</v>
+        <v>17.15776083694682</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.33003206921091</v>
+        <v>18.44354813247856</v>
       </c>
       <c r="C17">
-        <v>15.96109152724683</v>
+        <v>10.27601689711443</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.304052674561531</v>
+        <v>10.69773991852594</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>36.89864626602449</v>
+        <v>34.38376193644922</v>
       </c>
       <c r="H17">
-        <v>10.64258046109454</v>
+        <v>15.13260824912641</v>
       </c>
       <c r="I17">
-        <v>15.49391402599462</v>
+        <v>22.70334048894421</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.328055210701766</v>
+        <v>10.07416421135339</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.81033051583651</v>
+        <v>17.18341262668498</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.9757501867852</v>
+        <v>18.31253164549742</v>
       </c>
       <c r="C18">
-        <v>15.77481388484276</v>
+        <v>10.18868274572366</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.304884040848963</v>
+        <v>10.70342226669274</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>36.49580156421148</v>
+        <v>34.32366267297201</v>
       </c>
       <c r="H18">
-        <v>10.59613321878692</v>
+        <v>15.13836394165452</v>
       </c>
       <c r="I18">
-        <v>15.45074595182122</v>
+        <v>22.71995176721005</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.256900606527513</v>
+        <v>10.06503019453746</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.8656128671574</v>
+        <v>17.19835623893544</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.85494169899448</v>
+        <v>18.2680055511338</v>
       </c>
       <c r="C19">
-        <v>15.71134639534569</v>
+        <v>10.15891512411821</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.305231267477803</v>
+        <v>10.70536975845374</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>36.35957030581898</v>
+        <v>34.30354397694712</v>
       </c>
       <c r="H19">
-        <v>10.58063069921462</v>
+        <v>15.14037754885227</v>
       </c>
       <c r="I19">
-        <v>15.43659238692766</v>
+        <v>22.72568412624778</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.232775745421472</v>
+        <v>10.06196824002337</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.88437164058507</v>
+        <v>17.20344845386506</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.3951967841389</v>
+        <v>18.46771635471218</v>
       </c>
       <c r="C20">
-        <v>15.99537913760476</v>
+        <v>10.29208626321754</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.303930246564414</v>
+        <v>10.6966994268607</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>36.97328121608135</v>
+        <v>34.39499377344659</v>
       </c>
       <c r="H20">
-        <v>10.65128366029174</v>
+        <v>15.13157381357468</v>
       </c>
       <c r="I20">
-        <v>15.50212496808643</v>
+        <v>22.70031749750536</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.341208292479932</v>
+        <v>10.07586923704969</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.80011834460587</v>
+        <v>17.18066235865076</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.15159472221146</v>
+        <v>19.12653777166113</v>
       </c>
       <c r="C21">
-        <v>16.92233744016757</v>
+        <v>10.72560413388089</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.304262897249833</v>
+        <v>10.66920564016169</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>39.04628943731338</v>
+        <v>34.7180064371825</v>
       </c>
       <c r="H21">
-        <v>10.90458685941572</v>
+        <v>15.10651633021792</v>
       </c>
       <c r="I21">
-        <v>15.75558584592077</v>
+        <v>22.62263804643729</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.70305688979121</v>
+        <v>10.12468189142245</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.51978952369012</v>
+        <v>17.10636409403146</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.25651570747027</v>
+        <v>19.5473530388091</v>
       </c>
       <c r="C22">
-        <v>17.508131778666</v>
+        <v>10.99838844980966</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.308144525698951</v>
+        <v>10.65245642024238</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>40.40906199394753</v>
+        <v>34.94055947524072</v>
       </c>
       <c r="H22">
-        <v>11.08241654999146</v>
+        <v>15.09352347941824</v>
       </c>
       <c r="I22">
-        <v>15.94732519418377</v>
+        <v>22.5775327148722</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.93754584274836</v>
+        <v>10.15812245762695</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.33849940733059</v>
+        <v>17.05948387058161</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.67067680934708</v>
+        <v>19.3236909271611</v>
       </c>
       <c r="C23">
-        <v>17.19728932302652</v>
+        <v>10.8537732031994</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.305727122214474</v>
+        <v>10.66128425428266</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>39.68100103216797</v>
+        <v>34.82075130086524</v>
       </c>
       <c r="H23">
-        <v>10.98635493920887</v>
+        <v>15.10014757989925</v>
       </c>
       <c r="I23">
-        <v>15.8425221474496</v>
+        <v>22.60108584203672</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.812586008001654</v>
+        <v>10.14013591475833</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.43508986568509</v>
+        <v>17.08435159577239</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.36575173762297</v>
+        <v>18.45679316769367</v>
       </c>
       <c r="C24">
-        <v>15.97988514184494</v>
+        <v>10.2848250295052</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.303984389351472</v>
+        <v>10.69716939836725</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>36.939536392232</v>
+        <v>34.38991180238039</v>
       </c>
       <c r="H24">
-        <v>10.64734491501296</v>
+        <v>15.13204029713337</v>
       </c>
       <c r="I24">
-        <v>15.49840435743451</v>
+        <v>22.70168220595007</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.335262504592903</v>
+        <v>10.07509785467744</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.80473445587824</v>
+        <v>17.18190514398222</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.68972904187309</v>
+        <v>17.48441862432543</v>
       </c>
       <c r="C25">
-        <v>14.57857707619453</v>
+        <v>9.627034761519896</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.316828273956379</v>
+        <v>10.7411184069204</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>34.01936862183602</v>
+        <v>33.976167185546</v>
       </c>
       <c r="H25">
-        <v>10.33167533624068</v>
+        <v>15.18087862260726</v>
       </c>
       <c r="I25">
-        <v>15.23078787703434</v>
+        <v>22.83426568857381</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.812980083887503</v>
+        <v>10.01175109485537</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.21254073784953</v>
+        <v>17.29437835276153</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.74211658298923</v>
+        <v>22.55050045346662</v>
       </c>
       <c r="C2">
-        <v>9.106340609433479</v>
+        <v>13.46910300147098</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.777995426789</v>
+        <v>6.337893710058752</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>33.71702522009998</v>
+        <v>31.90760351085431</v>
       </c>
       <c r="H2">
-        <v>15.2291425669893</v>
+        <v>10.13905030533868</v>
       </c>
       <c r="I2">
-        <v>22.95232803070489</v>
+        <v>15.11297540182886</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.971151084086252</v>
+        <v>7.42380842546287</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.38348616892499</v>
+        <v>11.52160001913837</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.22601943643508</v>
+        <v>20.99276545834212</v>
       </c>
       <c r="C3">
-        <v>8.731812757914806</v>
+        <v>12.66824007125546</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.80581040853205</v>
+        <v>6.35891410452059</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>33.57042645172668</v>
+        <v>30.50593436087701</v>
       </c>
       <c r="H3">
-        <v>15.26946433217166</v>
+        <v>10.03159041530377</v>
       </c>
       <c r="I3">
-        <v>23.04495424042743</v>
+        <v>15.07735686159261</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.947488199921247</v>
+        <v>7.158408651678156</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.44783346892727</v>
+        <v>11.73701791263666</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.90400146914756</v>
+        <v>19.98225314567615</v>
       </c>
       <c r="C4">
-        <v>8.491610540611839</v>
+        <v>12.15235034107062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.82428308507186</v>
+        <v>6.374990712136662</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>33.49488681808001</v>
+        <v>29.66228061026216</v>
       </c>
       <c r="H4">
-        <v>15.29795471072259</v>
+        <v>9.976368269829541</v>
       </c>
       <c r="I4">
-        <v>23.10800238295127</v>
+        <v>15.07551969754083</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.934883713706315</v>
+        <v>6.995141682425476</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.48930575903287</v>
+        <v>11.87238172691606</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.77169840435675</v>
+        <v>19.55675640834862</v>
       </c>
       <c r="C5">
-        <v>8.391228676775132</v>
+        <v>11.93606718277262</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.83216165746712</v>
+        <v>6.382316780568105</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>33.46776099375218</v>
+        <v>29.32316979605136</v>
       </c>
       <c r="H5">
-        <v>15.3104999451569</v>
+        <v>9.95647191255728</v>
       </c>
       <c r="I5">
-        <v>23.13524078425337</v>
+        <v>15.07954068917403</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.930234732055579</v>
+        <v>6.92861708633118</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.50670105135336</v>
+        <v>11.92834391996139</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.74967095967739</v>
+        <v>19.48527209420799</v>
       </c>
       <c r="C6">
-        <v>8.374411988193517</v>
+        <v>11.89978888302177</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.83349108311013</v>
+        <v>6.383579419446117</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>33.46347804470602</v>
+        <v>29.26715639706485</v>
       </c>
       <c r="H6">
-        <v>15.31263945026449</v>
+        <v>9.953322625969806</v>
       </c>
       <c r="I6">
-        <v>23.13985685261571</v>
+        <v>15.08048859357944</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.929492306345679</v>
+        <v>6.917573877903865</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.50961946551247</v>
+        <v>11.93768536462878</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.90222125760373</v>
+        <v>19.9765703825063</v>
       </c>
       <c r="C7">
-        <v>8.490266757299414</v>
+        <v>12.1494579411607</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.82438791753696</v>
+        <v>6.375086406273136</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>33.49450616346</v>
+        <v>29.65768770164968</v>
       </c>
       <c r="H7">
-        <v>15.29812011836837</v>
+        <v>9.976089518156188</v>
       </c>
       <c r="I7">
-        <v>23.10836348025032</v>
+        <v>15.07555496870415</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.934819037967671</v>
+        <v>6.994244356527614</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.48953835191023</v>
+        <v>11.87313318364872</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.56535430921319</v>
+        <v>22.02454392657628</v>
       </c>
       <c r="C8">
-        <v>8.979372006814659</v>
+        <v>13.19798532568032</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.78729681388563</v>
+        <v>6.344469888146516</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>33.66348704777133</v>
+        <v>31.42102279550138</v>
       </c>
       <c r="H8">
-        <v>15.24226878650783</v>
+        <v>10.09970773649555</v>
       </c>
       <c r="I8">
-        <v>22.98297966126505</v>
+        <v>15.09637593156541</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.962594885040534</v>
+        <v>7.332412122625596</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.40526660720551</v>
+        <v>11.59524671677277</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.81647170848499</v>
+        <v>25.6170236671629</v>
       </c>
       <c r="C9">
-        <v>9.854379739930245</v>
+        <v>15.06257948527745</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.72561302011153</v>
+        <v>6.310630121647717</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>34.10857024227971</v>
+        <v>34.99766397906316</v>
       </c>
       <c r="H9">
-        <v>15.16250809550298</v>
+        <v>10.43160547119954</v>
       </c>
       <c r="I9">
-        <v>22.78641139040166</v>
+        <v>15.30795163402108</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.03216293625049</v>
+        <v>7.989768010298379</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.25551799346981</v>
+        <v>11.07386943018869</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.69526437388099</v>
+        <v>28.00601895056177</v>
       </c>
       <c r="C10">
-        <v>10.44278109550958</v>
+        <v>16.3171414547981</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.68701732351678</v>
+        <v>6.303247167382541</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>34.50292691644402</v>
+        <v>37.68089725032912</v>
       </c>
       <c r="H10">
-        <v>15.12224289119255</v>
+        <v>10.73527993880025</v>
       </c>
       <c r="I10">
-        <v>22.67247139740244</v>
+        <v>15.58321025240974</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.09222448274447</v>
+        <v>8.465465667882977</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.15485942200536</v>
+        <v>10.70373538738666</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.08440244778794</v>
+        <v>29.04030568776386</v>
       </c>
       <c r="C11">
-        <v>10.69812406366997</v>
+        <v>16.8634471198835</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.6709161016268</v>
+        <v>6.304031126009954</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>34.69640220896814</v>
+        <v>38.91149645211534</v>
       </c>
       <c r="H11">
-        <v>15.10794307393456</v>
+        <v>10.88746600273235</v>
       </c>
       <c r="I11">
-        <v>22.62734226609771</v>
+        <v>15.73766771080011</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.12142854203831</v>
+        <v>8.679723346502547</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.11108058649051</v>
+        <v>10.53783979833642</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.23009488584361</v>
+        <v>29.42457874955436</v>
       </c>
       <c r="C12">
-        <v>10.79300992262638</v>
+        <v>17.06687846670895</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.66502816155646</v>
+        <v>6.304954032040479</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>34.77163581708352</v>
+        <v>39.37885572430948</v>
       </c>
       <c r="H12">
-        <v>15.10310837089898</v>
+        <v>10.94719610986106</v>
       </c>
       <c r="I12">
-        <v>22.61122380645803</v>
+        <v>15.80061406858636</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.13275199347254</v>
+        <v>8.760516281559308</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.09479046792849</v>
+        <v>10.47535029541068</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.19879352680911</v>
+        <v>29.34214466308473</v>
       </c>
       <c r="C13">
-        <v>10.77265541429688</v>
+        <v>17.02321780456772</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.66628693105532</v>
+        <v>6.304726925020805</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>34.75534630222869</v>
+        <v>39.27814145751006</v>
       </c>
       <c r="H13">
-        <v>15.10412376033754</v>
+        <v>10.93423745140901</v>
       </c>
       <c r="I13">
-        <v>22.61465190998129</v>
+        <v>15.78685531104177</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.13030162239154</v>
+        <v>8.743131701606284</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.09828604809067</v>
+        <v>10.48879418156178</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.09642277021218</v>
+        <v>29.07206720554555</v>
       </c>
       <c r="C14">
-        <v>10.7059667738668</v>
+        <v>16.8802521096499</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.67042750457074</v>
+        <v>6.304094328075946</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>34.70255260685057</v>
+        <v>38.94991930066611</v>
       </c>
       <c r="H14">
-        <v>15.10753367487718</v>
+        <v>10.89233747309904</v>
       </c>
       <c r="I14">
-        <v>22.62599669108928</v>
+        <v>15.7427556143981</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.12235486424938</v>
+        <v>8.686377235201942</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.10973462417741</v>
+        <v>10.53269224824093</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.03349697638326</v>
+        <v>28.9056795807205</v>
       </c>
       <c r="C15">
-        <v>10.66488179950358</v>
+        <v>16.79223534109073</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.6729909705774</v>
+        <v>6.303789299281913</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>34.67046957565883</v>
+        <v>38.7490497790573</v>
       </c>
       <c r="H15">
-        <v>15.10969799724232</v>
+        <v>10.86694848007043</v>
       </c>
       <c r="I15">
-        <v>22.63307235312471</v>
+        <v>15.7163309982295</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.11752150519074</v>
+        <v>8.651568154020644</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.11678467422109</v>
+        <v>10.55962351492542</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.66960733418707</v>
+        <v>27.93738308401239</v>
       </c>
       <c r="C16">
-        <v>10.42584273264341</v>
+        <v>16.28095342045019</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.68809886498632</v>
+        <v>6.3032818522092</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>34.49056151741696</v>
+        <v>37.60066701215113</v>
       </c>
       <c r="H16">
-        <v>15.1232584856769</v>
+        <v>10.72562376077082</v>
       </c>
       <c r="I16">
-        <v>22.67555618118273</v>
+        <v>15.5737262203228</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.09035328285087</v>
+        <v>8.451417195616488</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.15776083694682</v>
+        <v>10.71462481879549</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.44354813247856</v>
+        <v>27.33003206921091</v>
       </c>
       <c r="C17">
-        <v>10.27601689711443</v>
+        <v>15.96109152724674</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.69773991852594</v>
+        <v>6.304052674561589</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>34.38376193644922</v>
+        <v>36.89864626602451</v>
       </c>
       <c r="H17">
-        <v>15.13260824912641</v>
+        <v>10.64258046109456</v>
       </c>
       <c r="I17">
-        <v>22.70334048894421</v>
+        <v>15.4939140259947</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.07416421135339</v>
+        <v>8.328055210701779</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.18341262668498</v>
+        <v>10.81033051583658</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.31253164549742</v>
+        <v>26.97575018678527</v>
       </c>
       <c r="C18">
-        <v>10.18868274572366</v>
+        <v>15.77481388484281</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.70342226669274</v>
+        <v>6.304884040848963</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>34.32366267297201</v>
+        <v>36.49580156421161</v>
       </c>
       <c r="H18">
-        <v>15.13836394165452</v>
+        <v>10.59613321878689</v>
       </c>
       <c r="I18">
-        <v>22.71995176721005</v>
+        <v>15.45074595182122</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.06503019453746</v>
+        <v>8.256900606527552</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.19835623893544</v>
+        <v>10.86561286715739</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.2680055511338</v>
+        <v>26.85494169899443</v>
       </c>
       <c r="C19">
-        <v>10.15891512411821</v>
+        <v>15.71134639534567</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.70536975845374</v>
+        <v>6.305231267477643</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>34.30354397694712</v>
+        <v>36.359570305819</v>
       </c>
       <c r="H19">
-        <v>15.14037754885227</v>
+        <v>10.58063069921465</v>
       </c>
       <c r="I19">
-        <v>22.72568412624778</v>
+        <v>15.4365923869278</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.06196824002337</v>
+        <v>8.232775745421437</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.20344845386506</v>
+        <v>10.88437164058511</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.46771635471218</v>
+        <v>27.39519678413886</v>
       </c>
       <c r="C20">
-        <v>10.29208626321754</v>
+        <v>15.99537913760483</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.6966994268607</v>
+        <v>6.303930246564361</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>34.39499377344659</v>
+        <v>36.97328121608138</v>
       </c>
       <c r="H20">
-        <v>15.13157381357468</v>
+        <v>10.65128366029181</v>
       </c>
       <c r="I20">
-        <v>22.70031749750536</v>
+        <v>15.50212496808651</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.07586923704969</v>
+        <v>8.341208292479918</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.18066235865076</v>
+        <v>10.8001183446059</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.12653777166113</v>
+        <v>29.15159472221138</v>
       </c>
       <c r="C21">
-        <v>10.72560413388089</v>
+        <v>16.92233744016757</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.66920564016169</v>
+        <v>6.304262897249828</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>34.7180064371825</v>
+        <v>39.04628943731343</v>
       </c>
       <c r="H21">
-        <v>15.10651633021792</v>
+        <v>10.9045868594158</v>
       </c>
       <c r="I21">
-        <v>22.62263804643729</v>
+        <v>15.75558584592094</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.12468189142245</v>
+        <v>8.703056889791235</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.10636409403146</v>
+        <v>10.51978952369018</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.5473530388091</v>
+        <v>30.25651570747028</v>
       </c>
       <c r="C22">
-        <v>10.99838844980966</v>
+        <v>17.50813177866589</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.65245642024238</v>
+        <v>6.308144525698843</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>34.94055947524072</v>
+        <v>40.40906199394752</v>
       </c>
       <c r="H22">
-        <v>15.09352347941824</v>
+        <v>11.08241654999144</v>
       </c>
       <c r="I22">
-        <v>22.5775327148722</v>
+        <v>15.94732519418377</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.15812245762695</v>
+        <v>8.937545842748342</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.05948387058161</v>
+        <v>10.33849940733056</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.3236909271611</v>
+        <v>29.67067680934709</v>
       </c>
       <c r="C23">
-        <v>10.8537732031994</v>
+        <v>17.19728932302666</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.66128425428266</v>
+        <v>6.305727122214637</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>34.82075130086524</v>
+        <v>39.68100103216802</v>
       </c>
       <c r="H23">
-        <v>15.10014757989925</v>
+        <v>10.98635493920889</v>
       </c>
       <c r="I23">
-        <v>22.60108584203672</v>
+        <v>15.84252214744959</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.14013591475833</v>
+        <v>8.812586008001674</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.08435159577239</v>
+        <v>10.43508986568502</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.45679316769367</v>
+        <v>27.36575173762302</v>
       </c>
       <c r="C24">
-        <v>10.2848250295052</v>
+        <v>15.97988514184493</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.69716939836725</v>
+        <v>6.303984389351372</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>34.38991180238039</v>
+        <v>36.93953639223218</v>
       </c>
       <c r="H24">
-        <v>15.13204029713337</v>
+        <v>10.64734491501299</v>
       </c>
       <c r="I24">
-        <v>22.70168220595007</v>
+        <v>15.49840435743463</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.07509785467744</v>
+        <v>8.335262504592864</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.18190514398222</v>
+        <v>10.80473445587826</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.48441862432543</v>
+        <v>24.68972904187304</v>
       </c>
       <c r="C25">
-        <v>9.627034761519896</v>
+        <v>14.57857707619461</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.7411184069204</v>
+        <v>6.316828273956326</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>33.976167185546</v>
+        <v>34.0193686218361</v>
       </c>
       <c r="H25">
-        <v>15.18087862260726</v>
+        <v>10.33167533624074</v>
       </c>
       <c r="I25">
-        <v>22.83426568857381</v>
+        <v>15.23078787703443</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.01175109485537</v>
+        <v>7.812980083887503</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.29437835276153</v>
+        <v>11.21254073784956</v>
       </c>
       <c r="O25">
         <v>0</v>
